--- a/Output/Descriptives/Pct_miss_month_name.xlsx
+++ b/Output/Descriptives/Pct_miss_month_name.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +453,7 @@
         <v>50</v>
       </c>
       <c r="G2">
-        <v>50.23041474654379</v>
+        <v>50.46082949308756</v>
       </c>
       <c r="H2">
         <v>50.71428571428571</v>
@@ -462,10 +462,10 @@
         <v>50.23041474654379</v>
       </c>
       <c r="J2">
-        <v>50.69124423963134</v>
+        <v>50.92165898617511</v>
       </c>
       <c r="K2">
-        <v>51.66666666666667</v>
+        <v>51.90476190476191</v>
       </c>
       <c r="L2">
         <v>55.29953917050692</v>
@@ -495,7 +495,7 @@
         <v>50.12658227848101</v>
       </c>
       <c r="E3">
-        <v>50.92165898617511</v>
+        <v>51.1520737327189</v>
       </c>
       <c r="F3">
         <v>50.71428571428571</v>
@@ -552,7 +552,7 @@
         <v>50</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>50.23809523809524</v>
       </c>
       <c r="I4">
         <v>50.23041474654379</v>
@@ -681,232 +681,232 @@
         </is>
       </c>
       <c r="C7">
-        <v>48.15668202764977</v>
+        <v>54.37788018433179</v>
       </c>
       <c r="D7">
-        <v>50.12658227848101</v>
+        <v>50.37974683544304</v>
       </c>
       <c r="E7">
-        <v>51.1520737327189</v>
+        <v>53.68663594470046</v>
       </c>
       <c r="F7">
         <v>50.23809523809524</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>50.46082949308756</v>
       </c>
       <c r="H7">
-        <v>50.71428571428571</v>
+        <v>51.42857142857142</v>
       </c>
       <c r="I7">
-        <v>50.46082949308756</v>
+        <v>50.69124423963134</v>
       </c>
       <c r="J7">
-        <v>50.46082949308756</v>
+        <v>51.1520737327189</v>
       </c>
       <c r="K7">
-        <v>50.47619047619047</v>
+        <v>52.14285714285715</v>
       </c>
       <c r="L7">
-        <v>50.23041474654379</v>
+        <v>55.29953917050692</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>59.28571428571428</v>
       </c>
       <c r="N7">
-        <v>50.23041474654379</v>
+        <v>57.83410138248848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C8">
-        <v>1.382488479262673</v>
+        <v>54.37788018433179</v>
       </c>
       <c r="D8">
-        <v>3.037974683544304</v>
+        <v>50.37974683544304</v>
       </c>
       <c r="E8">
-        <v>9.216589861751153</v>
+        <v>52.99539170506912</v>
       </c>
       <c r="F8">
-        <v>0.9523809523809524</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>50.46082949308756</v>
       </c>
       <c r="H8">
-        <v>0.7142857142857143</v>
+        <v>50.71428571428571</v>
       </c>
       <c r="I8">
-        <v>0.4608294930875576</v>
+        <v>50.23041474654379</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>50.92165898617511</v>
       </c>
       <c r="K8">
-        <v>0.9523809523809524</v>
+        <v>51.90476190476191</v>
       </c>
       <c r="L8">
-        <v>4.147465437788019</v>
+        <v>55.29953917050692</v>
       </c>
       <c r="M8">
-        <v>0.9523809523809524</v>
+        <v>59.28571428571428</v>
       </c>
       <c r="N8">
-        <v>2.534562211981567</v>
+        <v>57.6036866359447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C9">
-        <v>9.216589861751153</v>
+        <v>48.15668202764977</v>
       </c>
       <c r="D9">
-        <v>5.063291139240507</v>
+        <v>50.12658227848101</v>
       </c>
       <c r="E9">
-        <v>2.073732718894009</v>
+        <v>51.1520737327189</v>
       </c>
       <c r="F9">
-        <v>3.80952380952381</v>
+        <v>50.71428571428571</v>
       </c>
       <c r="G9">
-        <v>10.59907834101383</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="H9">
-        <v>14.04761904761905</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="I9">
-        <v>14.74654377880184</v>
+        <v>50.92165898617511</v>
       </c>
       <c r="J9">
-        <v>18.89400921658986</v>
+        <v>50.92165898617511</v>
       </c>
       <c r="K9">
-        <v>14.28571428571428</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L9">
-        <v>14.28571428571428</v>
+        <v>53.91705069124424</v>
       </c>
       <c r="M9">
-        <v>21.66666666666667</v>
+        <v>50.23809523809524</v>
       </c>
       <c r="N9">
-        <v>22.8110599078341</v>
+        <v>50.23041474654379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.9216589861751152</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="D10">
-        <v>0.2531645569620253</v>
+        <v>50.12658227848101</v>
       </c>
       <c r="E10">
-        <v>3.225806451612903</v>
+        <v>50.69124423963134</v>
       </c>
       <c r="F10">
-        <v>1.19047619047619</v>
+        <v>50.47619047619047</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>0.4761904761904762</v>
+        <v>50.23809523809524</v>
       </c>
       <c r="I10">
-        <v>0.9216589861751152</v>
+        <v>50.23041474654379</v>
       </c>
       <c r="J10">
-        <v>0.2304147465437788</v>
+        <v>50.69124423963134</v>
       </c>
       <c r="K10">
-        <v>2.619047619047619</v>
+        <v>50.71428571428571</v>
       </c>
       <c r="L10">
-        <v>3.917050691244239</v>
+        <v>50.92165898617511</v>
       </c>
       <c r="M10">
-        <v>0.4761904761904762</v>
+        <v>50</v>
       </c>
       <c r="N10">
-        <v>5.069124423963133</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C11">
-        <v>7.373271889400922</v>
+        <v>54.37788018433179</v>
       </c>
       <c r="D11">
-        <v>4.30379746835443</v>
+        <v>50.37974683544304</v>
       </c>
       <c r="E11">
-        <v>1.152073732718894</v>
+        <v>53.68663594470046</v>
       </c>
       <c r="F11">
-        <v>1.904761904761905</v>
+        <v>50.23809523809524</v>
       </c>
       <c r="G11">
-        <v>1.382488479262673</v>
+        <v>50.46082949308756</v>
       </c>
       <c r="H11">
-        <v>1.428571428571429</v>
+        <v>51.42857142857142</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>50.69124423963134</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>51.1520737327189</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>52.14285714285715</v>
       </c>
       <c r="L11">
-        <v>2.764976958525346</v>
+        <v>55.29953917050692</v>
       </c>
       <c r="M11">
-        <v>11.9047619047619</v>
+        <v>59.28571428571428</v>
       </c>
       <c r="N11">
-        <v>9.447004608294931</v>
+        <v>57.83410138248848</v>
       </c>
     </row>
     <row r="12">
@@ -917,44 +917,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C12">
-        <v>7.373271889400922</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D12">
-        <v>4.556962025316456</v>
+        <v>3.037974683544304</v>
       </c>
       <c r="E12">
-        <v>2.073732718894009</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="F12">
-        <v>2.142857142857143</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="G12">
-        <v>1.382488479262673</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="H12">
-        <v>1.19047619047619</v>
+        <v>4.047619047619047</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.84331797235023</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="L12">
-        <v>2.764976958525346</v>
+        <v>4.147465437788019</v>
       </c>
       <c r="M12">
-        <v>11.9047619047619</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="N12">
-        <v>9.447004608294931</v>
+        <v>2.534562211981567</v>
       </c>
     </row>
     <row r="13">
@@ -965,173 +965,173 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C13">
-        <v>7.603686635944701</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="D13">
-        <v>6.582278481012659</v>
+        <v>5.063291139240507</v>
       </c>
       <c r="E13">
-        <v>8.294930875576037</v>
+        <v>2.073732718894009</v>
       </c>
       <c r="F13">
-        <v>3.095238095238095</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="G13">
-        <v>9.67741935483871</v>
+        <v>10.59907834101383</v>
       </c>
       <c r="H13">
-        <v>2.619047619047619</v>
+        <v>14.04761904761905</v>
       </c>
       <c r="I13">
-        <v>0.2304147465437788</v>
+        <v>14.74654377880184</v>
       </c>
       <c r="J13">
-        <v>2.764976958525346</v>
+        <v>18.89400921658986</v>
       </c>
       <c r="K13">
-        <v>6.428571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L13">
-        <v>2.764976958525346</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="M13">
-        <v>12.85714285714286</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="N13">
-        <v>9.447004608294931</v>
+        <v>22.8110599078341</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.4608294930875576</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="D14">
-        <v>0.7594936708860759</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="E14">
-        <v>9.447004608294931</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="F14">
-        <v>0.9523809523809524</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="G14">
-        <v>0.9216589861751152</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0.4761904761904762</v>
       </c>
       <c r="I14">
-        <v>0.4608294930875576</v>
+        <v>1.152073732718894</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="K14">
-        <v>3.571428571428571</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="L14">
-        <v>2.073732718894009</v>
+        <v>3.917050691244239</v>
       </c>
       <c r="M14">
-        <v>5.714285714285714</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="N14">
-        <v>2.995391705069124</v>
+        <v>5.069124423963133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C15">
+        <v>7.373271889400922</v>
+      </c>
+      <c r="D15">
+        <v>4.30379746835443</v>
+      </c>
+      <c r="E15">
         <v>1.152073732718894</v>
       </c>
-      <c r="D15">
-        <v>2.531645569620253</v>
-      </c>
-      <c r="E15">
-        <v>9.216589861751153</v>
-      </c>
       <c r="F15">
-        <v>7.61904761904762</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="G15">
-        <v>21.88940092165899</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="H15">
-        <v>17.61904761904762</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I15">
-        <v>8.986175115207374</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>17.28110599078341</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.755760368663594</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="M15">
-        <v>14.28571428571428</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="N15">
-        <v>16.58986175115207</v>
+        <v>9.447004608294931</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.4608294930875576</v>
+        <v>7.373271889400922</v>
       </c>
       <c r="D16">
-        <v>0.2531645569620253</v>
+        <v>4.556962025316456</v>
       </c>
       <c r="E16">
-        <v>1.612903225806452</v>
+        <v>2.073732718894009</v>
       </c>
       <c r="F16">
-        <v>2.619047619047619</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="G16">
-        <v>0.9216589861751152</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="H16">
-        <v>3.80952380952381</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I16">
-        <v>0.4608294930875576</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1140,739 +1140,739 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.382488479262673</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="M16">
-        <v>5.476190476190476</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="N16">
-        <v>3.917050691244239</v>
+        <v>9.447004608294931</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8.986175115207374</v>
       </c>
       <c r="D17">
-        <v>0.2531645569620253</v>
+        <v>9.367088607594937</v>
       </c>
       <c r="E17">
-        <v>0.9216589861751152</v>
+        <v>15.89861751152074</v>
       </c>
       <c r="F17">
-        <v>0.7142857142857143</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="G17">
-        <v>0.4608294930875576</v>
+        <v>10.59907834101383</v>
       </c>
       <c r="H17">
-        <v>0.7142857142857143</v>
+        <v>6.190476190476191</v>
       </c>
       <c r="I17">
-        <v>0.2304147465437788</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.380952380952381</v>
       </c>
       <c r="L17">
-        <v>2.534562211981567</v>
+        <v>6.682027649769585</v>
       </c>
       <c r="M17">
-        <v>10.47619047619048</v>
+        <v>13.0952380952381</v>
       </c>
       <c r="N17">
-        <v>5.069124423963133</v>
+        <v>9.907834101382489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D18">
-        <v>2.531645569620253</v>
+        <v>3.037974683544304</v>
       </c>
       <c r="E18">
-        <v>8.755760368663594</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="F18">
-        <v>3.80952380952381</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="G18">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="H18">
+        <v>4.047619047619047</v>
+      </c>
+      <c r="I18">
+        <v>1.84331797235023</v>
+      </c>
+      <c r="J18">
         <v>0.4608294930875576</v>
       </c>
-      <c r="H18">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="I18">
-        <v>0.2304147465437788</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="L18">
+        <v>4.147465437788019</v>
+      </c>
+      <c r="M18">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="N18">
         <v>2.534562211981567</v>
-      </c>
-      <c r="M18">
-        <v>10.47619047619048</v>
-      </c>
-      <c r="N18">
-        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C19">
-        <v>7.142857142857142</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="D19">
-        <v>7.088607594936709</v>
+        <v>5.063291139240507</v>
       </c>
       <c r="E19">
-        <v>7.834101382488479</v>
+        <v>2.073732718894009</v>
       </c>
       <c r="F19">
-        <v>7.380952380952381</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="G19">
-        <v>7.603686635944701</v>
+        <v>10.59907834101383</v>
       </c>
       <c r="H19">
-        <v>7.857142857142857</v>
+        <v>14.04761904761905</v>
       </c>
       <c r="I19">
-        <v>4.838709677419355</v>
+        <v>14.74654377880184</v>
       </c>
       <c r="J19">
-        <v>0.2304147465437788</v>
+        <v>18.89400921658986</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L19">
-        <v>2.534562211981567</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="M19">
-        <v>15.47619047619048</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="N19">
-        <v>13.59447004608295</v>
+        <v>22.8110599078341</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C20">
-        <v>15.89861751152074</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="D20">
-        <v>17.21518987341772</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="E20">
-        <v>24.88479262672811</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="F20">
-        <v>14.52380952380953</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="G20">
-        <v>15.43778801843318</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>14.28571428571428</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="I20">
-        <v>15.2073732718894</v>
+        <v>1.152073732718894</v>
       </c>
       <c r="J20">
-        <v>21.42857142857143</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="K20">
-        <v>22.85714285714286</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="L20">
-        <v>24.65437788018433</v>
+        <v>3.917050691244239</v>
       </c>
       <c r="M20">
-        <v>22.61904761904762</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="N20">
-        <v>21.65898617511521</v>
+        <v>5.069124423963133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C21">
-        <v>16.82027649769585</v>
+        <v>8.986175115207374</v>
       </c>
       <c r="D21">
-        <v>20.25316455696203</v>
+        <v>9.367088607594937</v>
       </c>
       <c r="E21">
-        <v>22.8110599078341</v>
+        <v>15.89861751152074</v>
       </c>
       <c r="F21">
-        <v>28.57142857142857</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="G21">
-        <v>35.71428571428572</v>
+        <v>10.59907834101383</v>
       </c>
       <c r="H21">
-        <v>30.71428571428572</v>
+        <v>6.190476190476191</v>
       </c>
       <c r="I21">
-        <v>28.57142857142857</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="J21">
-        <v>31.79723502304148</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="K21">
-        <v>28.80952380952381</v>
+        <v>7.380952380952381</v>
       </c>
       <c r="L21">
-        <v>29.95391705069124</v>
+        <v>6.682027649769585</v>
       </c>
       <c r="M21">
-        <v>28.80952380952381</v>
+        <v>13.0952380952381</v>
       </c>
       <c r="N21">
-        <v>29.03225806451613</v>
+        <v>9.907834101382489</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C22">
-        <v>15.43778801843318</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="D22">
-        <v>15.69620253164557</v>
+        <v>0.7594936708860759</v>
       </c>
       <c r="E22">
-        <v>15.89861751152074</v>
+        <v>9.447004608294931</v>
       </c>
       <c r="F22">
-        <v>14.76190476190476</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="G22">
-        <v>15.89861751152074</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="H22">
-        <v>16.19047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I22">
-        <v>15.2073732718894</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="J22">
-        <v>21.65898617511521</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.66666666666667</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L22">
-        <v>21.42857142857143</v>
+        <v>2.073732718894009</v>
       </c>
       <c r="M22">
-        <v>23.09523809523809</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="N22">
-        <v>21.42857142857143</v>
+        <v>2.995391705069124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C23">
-        <v>15.2073732718894</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D23">
-        <v>15.69620253164557</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E23">
-        <v>15.66820276497696</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="F23">
-        <v>17.38095238095238</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="G23">
-        <v>15.2073732718894</v>
+        <v>21.88940092165899</v>
       </c>
       <c r="H23">
-        <v>15.47619047619048</v>
+        <v>17.61904761904762</v>
       </c>
       <c r="I23">
+        <v>8.986175115207374</v>
+      </c>
+      <c r="J23">
+        <v>17.28110599078341</v>
+      </c>
+      <c r="K23">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="L23">
+        <v>8.755760368663594</v>
+      </c>
+      <c r="M23">
         <v>14.28571428571428</v>
       </c>
-      <c r="J23">
-        <v>21.19815668202765</v>
-      </c>
-      <c r="K23">
-        <v>21.90476190476191</v>
-      </c>
-      <c r="L23">
-        <v>21.65898617511521</v>
-      </c>
-      <c r="M23">
-        <v>22.85714285714286</v>
-      </c>
       <c r="N23">
-        <v>21.65898617511521</v>
+        <v>16.58986175115207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C24">
-        <v>15.2073732718894</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="D24">
-        <v>17.21518987341772</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="E24">
-        <v>16.12903225806452</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="F24">
-        <v>14.76190476190476</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="G24">
-        <v>15.43778801843318</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="H24">
-        <v>16.90476190476191</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="I24">
-        <v>20.27649769585253</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="J24">
-        <v>24.42396313364055</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>29.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>21.65898617511521</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="M24">
-        <v>22.85714285714286</v>
+        <v>5.476190476190476</v>
       </c>
       <c r="N24">
-        <v>21.65898617511521</v>
+        <v>3.917050691244239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C25">
-        <v>15.2073732718894</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>14.68354430379747</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="E25">
-        <v>15.43778801843318</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="F25">
-        <v>14.28571428571428</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G25">
-        <v>15.2073732718894</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="H25">
-        <v>15.23809523809524</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I25">
-        <v>14.51612903225807</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="J25">
-        <v>21.65898617511521</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>21.90476190476191</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>21.65898617511521</v>
+        <v>2.534562211981567</v>
       </c>
       <c r="M25">
-        <v>22.85714285714286</v>
+        <v>10.47619047619048</v>
       </c>
       <c r="N25">
-        <v>21.65898617511521</v>
+        <v>5.069124423963133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C26">
-        <v>15.66820276497696</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>16.70886075949367</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E26">
-        <v>27.88018433179723</v>
+        <v>8.755760368663594</v>
       </c>
       <c r="F26">
-        <v>14.28571428571428</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="G26">
-        <v>15.2073732718894</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="H26">
-        <v>10.95238095238095</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I26">
-        <v>7.834101382488479</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="J26">
-        <v>7.603686635944701</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>11.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>9.907834101382489</v>
+        <v>2.534562211981567</v>
       </c>
       <c r="M26">
-        <v>2.380952380952381</v>
+        <v>10.47619047619048</v>
       </c>
       <c r="N26">
-        <v>0.4608294930875576</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C27">
-        <v>1.382488479262673</v>
+        <v>7.603686635944701</v>
       </c>
       <c r="D27">
-        <v>0.5063291139240507</v>
+        <v>7.848101265822785</v>
       </c>
       <c r="E27">
-        <v>3.686635944700461</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="F27">
-        <v>4.523809523809524</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="G27">
-        <v>21.65898617511521</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="H27">
-        <v>20.71428571428572</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="I27">
-        <v>26.26728110599078</v>
+        <v>5.069124423963133</v>
       </c>
       <c r="J27">
-        <v>33.17972350230415</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="K27">
-        <v>21.90476190476191</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L27">
-        <v>14.28571428571428</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="M27">
-        <v>14.52380952380953</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="N27">
-        <v>14.74654377880184</v>
+        <v>14.05529953917051</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C28">
-        <v>1.382488479262673</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="D28">
         <v>0.7594936708860759</v>
       </c>
       <c r="E28">
-        <v>3.686635944700461</v>
+        <v>9.447004608294931</v>
       </c>
       <c r="F28">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="G28">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="H28">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I28">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="J28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>0.6912442396313364</v>
-      </c>
-      <c r="H28">
-        <v>5.238095238095238</v>
-      </c>
-      <c r="I28">
-        <v>1.612903225806452</v>
-      </c>
-      <c r="J28">
-        <v>0.4608294930875576</v>
-      </c>
       <c r="K28">
-        <v>1.19047619047619</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L28">
-        <v>3.686635944700461</v>
+        <v>2.073732718894009</v>
       </c>
       <c r="M28">
-        <v>1.666666666666667</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="N28">
-        <v>0.4608294930875576</v>
+        <v>2.995391705069124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C29">
         <v>1.382488479262673</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E29">
-        <v>3.686635944700461</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="G29">
-        <v>0.4608294930875576</v>
+        <v>21.88940092165899</v>
       </c>
       <c r="H29">
-        <v>1.19047619047619</v>
+        <v>17.61904761904762</v>
       </c>
       <c r="I29">
-        <v>0.6912442396313364</v>
+        <v>8.986175115207374</v>
       </c>
       <c r="J29">
-        <v>0.6912442396313364</v>
+        <v>17.28110599078341</v>
       </c>
       <c r="K29">
-        <v>6.904761904761905</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L29">
-        <v>4.147465437788019</v>
+        <v>8.755760368663594</v>
       </c>
       <c r="M29">
         <v>14.28571428571428</v>
       </c>
       <c r="N29">
-        <v>1.152073732718894</v>
+        <v>16.58986175115207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C30">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="D30">
+        <v>0.2531645569620253</v>
+      </c>
+      <c r="E30">
+        <v>1.612903225806452</v>
+      </c>
+      <c r="F30">
+        <v>2.619047619047619</v>
+      </c>
+      <c r="G30">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="H30">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="I30">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>1.382488479262673</v>
       </c>
-      <c r="D30">
-        <v>5.316455696202532</v>
-      </c>
-      <c r="E30">
-        <v>12.44239631336406</v>
-      </c>
-      <c r="F30">
-        <v>10.95238095238095</v>
-      </c>
-      <c r="G30">
-        <v>13.36405529953917</v>
-      </c>
-      <c r="H30">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="I30">
+      <c r="M30">
+        <v>5.476190476190476</v>
+      </c>
+      <c r="N30">
         <v>3.917050691244239</v>
-      </c>
-      <c r="J30">
-        <v>1.84331797235023</v>
-      </c>
-      <c r="K30">
-        <v>17.38095238095238</v>
-      </c>
-      <c r="L30">
-        <v>18.66359447004608</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-      <c r="N30">
-        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C31">
-        <v>1.382488479262673</v>
+        <v>7.603686635944701</v>
       </c>
       <c r="D31">
-        <v>0.5063291139240507</v>
+        <v>7.848101265822785</v>
       </c>
       <c r="E31">
-        <v>4.147465437788019</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="G31">
-        <v>0.4608294930875576</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="H31">
-        <v>0.7142857142857143</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="I31">
-        <v>0.9216589861751152</v>
+        <v>5.069124423963133</v>
       </c>
       <c r="J31">
-        <v>0.9216589861751152</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="K31">
-        <v>6.904761904761905</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L31">
-        <v>3.686635944700461</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="M31">
-        <v>11.19047619047619</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="N31">
-        <v>1.152073732718894</v>
+        <v>14.05529953917051</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1881,46 +1881,46 @@
         </is>
       </c>
       <c r="C32">
-        <v>1.152073732718894</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="D32">
-        <v>5.822784810126582</v>
+        <v>17.21518987341772</v>
       </c>
       <c r="E32">
-        <v>7.603686635944701</v>
+        <v>24.88479262672811</v>
       </c>
       <c r="F32">
-        <v>0.4761904761904762</v>
+        <v>14.52380952380953</v>
       </c>
       <c r="G32">
-        <v>0.6912442396313364</v>
+        <v>15.43778801843318</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="I32">
-        <v>2.304147465437788</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="J32">
-        <v>0.4608294930875576</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="K32">
-        <v>3.571428571428571</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="L32">
-        <v>2.304147465437788</v>
+        <v>24.65437788018433</v>
       </c>
       <c r="M32">
-        <v>3.333333333333333</v>
+        <v>22.61904761904762</v>
       </c>
       <c r="N32">
-        <v>2.304147465437788</v>
+        <v>21.65898617511521</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1929,46 +1929,46 @@
         </is>
       </c>
       <c r="C33">
-        <v>2.534562211981567</v>
+        <v>17.51152073732719</v>
       </c>
       <c r="D33">
-        <v>4.30379746835443</v>
+        <v>20.25316455696203</v>
       </c>
       <c r="E33">
-        <v>5.990783410138248</v>
+        <v>22.8110599078341</v>
       </c>
       <c r="F33">
-        <v>0.4761904761904762</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G33">
-        <v>8.064516129032258</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="H33">
-        <v>9.761904761904763</v>
+        <v>30.71428571428572</v>
       </c>
       <c r="I33">
-        <v>18.20276497695852</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="J33">
-        <v>16.3594470046083</v>
+        <v>31.79723502304148</v>
       </c>
       <c r="K33">
-        <v>7.857142857142857</v>
+        <v>28.80952380952381</v>
       </c>
       <c r="L33">
-        <v>7.603686635944701</v>
+        <v>29.95391705069124</v>
       </c>
       <c r="M33">
-        <v>16.90476190476191</v>
+        <v>28.80952380952381</v>
       </c>
       <c r="N33">
-        <v>14.97695852534562</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1977,46 +1977,46 @@
         </is>
       </c>
       <c r="C34">
-        <v>2.764976958525346</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="D34">
-        <v>4.556962025316456</v>
+        <v>15.69620253164557</v>
       </c>
       <c r="E34">
-        <v>1.382488479262673</v>
+        <v>15.89861751152074</v>
       </c>
       <c r="F34">
-        <v>0.4761904761904762</v>
+        <v>15</v>
       </c>
       <c r="G34">
-        <v>1.612903225806452</v>
+        <v>15.89861751152074</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>16.19047619047619</v>
       </c>
       <c r="I34">
-        <v>1.84331797235023</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="J34">
-        <v>0.6912442396313364</v>
+        <v>21.65898617511521</v>
       </c>
       <c r="K34">
-        <v>1.428571428571429</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="L34">
-        <v>1.152073732718894</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="M34">
-        <v>4.047619047619047</v>
+        <v>23.09523809523809</v>
       </c>
       <c r="N34">
-        <v>0.9216589861751152</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2025,46 +2025,46 @@
         </is>
       </c>
       <c r="C35">
-        <v>8.064516129032258</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="D35">
-        <v>2.531645569620253</v>
+        <v>15.69620253164557</v>
       </c>
       <c r="E35">
-        <v>1.152073732718894</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="F35">
-        <v>4.523809523809524</v>
+        <v>17.38095238095238</v>
       </c>
       <c r="G35">
-        <v>12.90322580645161</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="H35">
-        <v>17.14285714285714</v>
+        <v>15.47619047619048</v>
       </c>
       <c r="I35">
-        <v>12.90322580645161</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="J35">
-        <v>6.682027649769585</v>
+        <v>21.19815668202765</v>
       </c>
       <c r="K35">
-        <v>1.666666666666667</v>
+        <v>21.90476190476191</v>
       </c>
       <c r="L35">
-        <v>3.456221198156682</v>
+        <v>21.65898617511521</v>
       </c>
       <c r="M35">
-        <v>16.19047619047619</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="N35">
-        <v>7.373271889400922</v>
+        <v>21.65898617511521</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2073,46 +2073,46 @@
         </is>
       </c>
       <c r="C36">
-        <v>14.28571428571428</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="D36">
-        <v>5.316455696202532</v>
+        <v>17.21518987341772</v>
       </c>
       <c r="E36">
-        <v>2.764976958525346</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="F36">
-        <v>0.9523809523809524</v>
+        <v>14.76190476190476</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>15.43778801843318</v>
       </c>
       <c r="H36">
-        <v>9.523809523809524</v>
+        <v>16.90476190476191</v>
       </c>
       <c r="I36">
-        <v>8.986175115207374</v>
+        <v>20.27649769585253</v>
       </c>
       <c r="J36">
-        <v>8.294930875576037</v>
+        <v>24.42396313364055</v>
       </c>
       <c r="K36">
-        <v>7.857142857142857</v>
+        <v>29.04761904761905</v>
       </c>
       <c r="L36">
-        <v>6.221198156682028</v>
+        <v>21.65898617511521</v>
       </c>
       <c r="M36">
-        <v>23.09523809523809</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="N36">
-        <v>10.13824884792627</v>
+        <v>21.65898617511521</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2121,1198 +2121,1198 @@
         </is>
       </c>
       <c r="C37">
-        <v>14.51612903225807</v>
+        <v>16.58986175115207</v>
       </c>
       <c r="D37">
-        <v>14.93670886075949</v>
+        <v>17.46835443037974</v>
       </c>
       <c r="E37">
-        <v>15.89861751152074</v>
+        <v>25.57603686635945</v>
       </c>
       <c r="F37">
-        <v>15.47619047619048</v>
+        <v>14.52380952380953</v>
       </c>
       <c r="G37">
-        <v>14.28571428571428</v>
+        <v>15.43778801843318</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>15.23809523809524</v>
       </c>
       <c r="I37">
-        <v>14.74654377880184</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="J37">
-        <v>14.51612903225807</v>
+        <v>21.88940092165899</v>
       </c>
       <c r="K37">
-        <v>7.857142857142857</v>
+        <v>23.09523809523809</v>
       </c>
       <c r="L37">
-        <v>9.67741935483871</v>
+        <v>24.88479262672811</v>
       </c>
       <c r="M37">
-        <v>23.33333333333333</v>
+        <v>24.04761904761905</v>
       </c>
       <c r="N37">
-        <v>12.44239631336406</v>
+        <v>21.88940092165899</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C38">
-        <v>2.304147465437788</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="D38">
-        <v>1.012658227848101</v>
+        <v>17.21518987341772</v>
       </c>
       <c r="E38">
-        <v>10.36866359447005</v>
+        <v>24.88479262672811</v>
       </c>
       <c r="F38">
-        <v>2.857142857142857</v>
+        <v>14.52380952380953</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>15.43778801843318</v>
       </c>
       <c r="H38">
-        <v>0.4761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="I38">
-        <v>7.142857142857142</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="J38">
-        <v>0.4608294930875576</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="K38">
-        <v>1.666666666666667</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="L38">
-        <v>4.838709677419355</v>
+        <v>24.65437788018433</v>
       </c>
       <c r="M38">
-        <v>7.857142857142857</v>
+        <v>22.61904761904762</v>
       </c>
       <c r="N38">
-        <v>8.755760368663594</v>
+        <v>21.65898617511521</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C39">
-        <v>14.51612903225807</v>
+        <v>17.51152073732719</v>
       </c>
       <c r="D39">
-        <v>9.113924050632912</v>
+        <v>20.25316455696203</v>
       </c>
       <c r="E39">
-        <v>1.84331797235023</v>
+        <v>22.8110599078341</v>
       </c>
       <c r="F39">
-        <v>7.61904761904762</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G39">
-        <v>9.907834101382489</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="H39">
-        <v>9.285714285714286</v>
+        <v>30.71428571428572</v>
       </c>
       <c r="I39">
-        <v>8.755760368663594</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="J39">
-        <v>14.28571428571428</v>
+        <v>31.79723502304148</v>
       </c>
       <c r="K39">
-        <v>15.47619047619048</v>
+        <v>28.80952380952381</v>
       </c>
       <c r="L39">
-        <v>17.05069124423963</v>
+        <v>29.95391705069124</v>
       </c>
       <c r="M39">
-        <v>27.14285714285714</v>
+        <v>28.80952380952381</v>
       </c>
       <c r="N39">
-        <v>22.11981566820277</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.4608294930875576</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="D40">
-        <v>1.518987341772152</v>
+        <v>15.69620253164557</v>
       </c>
       <c r="E40">
-        <v>2.764976958525346</v>
+        <v>15.89861751152074</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>0.2304147465437788</v>
+        <v>15.89861751152074</v>
       </c>
       <c r="H40">
-        <v>0.4761904761904762</v>
+        <v>16.19047619047619</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="J40">
-        <v>0.9216589861751152</v>
+        <v>21.65898617511521</v>
       </c>
       <c r="K40">
-        <v>0.4761904761904762</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="L40">
-        <v>1.382488479262673</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>23.09523809523809</v>
       </c>
       <c r="N40">
-        <v>1.152073732718894</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.2304147465437788</v>
+        <v>16.58986175115207</v>
       </c>
       <c r="D41">
-        <v>0.5063291139240507</v>
+        <v>17.46835443037974</v>
       </c>
       <c r="E41">
-        <v>0.9216589861751152</v>
+        <v>25.57603686635945</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>14.52380952380953</v>
       </c>
       <c r="G41">
-        <v>0.2304147465437788</v>
+        <v>15.43778801843318</v>
       </c>
       <c r="H41">
-        <v>1.428571428571429</v>
+        <v>15.23809523809524</v>
       </c>
       <c r="I41">
-        <v>0.6912442396313364</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>21.88940092165899</v>
       </c>
       <c r="K41">
-        <v>0.2380952380952381</v>
+        <v>23.09523809523809</v>
       </c>
       <c r="L41">
-        <v>5.76036866359447</v>
+        <v>24.88479262672811</v>
       </c>
       <c r="M41">
-        <v>11.19047619047619</v>
+        <v>24.04761904761905</v>
       </c>
       <c r="N41">
-        <v>3.225806451612903</v>
+        <v>21.88940092165899</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.2304147465437788</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="D42">
-        <v>1.012658227848101</v>
+        <v>16.70886075949367</v>
       </c>
       <c r="E42">
-        <v>1.382488479262673</v>
+        <v>27.88018433179723</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="H42">
-        <v>1.19047619047619</v>
+        <v>11.19047619047619</v>
       </c>
       <c r="I42">
-        <v>0.9216589861751152</v>
+        <v>7.834101382488479</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>7.603686635944701</v>
       </c>
       <c r="K42">
-        <v>0.4761904761904762</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="L42">
-        <v>5.76036866359447</v>
+        <v>9.907834101382489</v>
       </c>
       <c r="M42">
-        <v>11.66666666666667</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="N42">
-        <v>3.225806451612903</v>
+        <v>0.4608294930875576</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C43">
-        <v>7.373271889400922</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D43">
-        <v>7.59493670886076</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E43">
-        <v>7.603686635944701</v>
+        <v>4.147465437788019</v>
       </c>
       <c r="F43">
-        <v>6.190476190476191</v>
+        <v>4.523809523809524</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>21.65898617511521</v>
       </c>
       <c r="H43">
-        <v>1.19047619047619</v>
+        <v>20.71428571428572</v>
       </c>
       <c r="I43">
-        <v>1.84331797235023</v>
+        <v>26.26728110599078</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>33.17972350230415</v>
       </c>
       <c r="K43">
-        <v>0.4761904761904762</v>
+        <v>21.90476190476191</v>
       </c>
       <c r="L43">
-        <v>5.529953917050691</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="M43">
-        <v>11.19047619047619</v>
+        <v>14.52380952380953</v>
       </c>
       <c r="N43">
-        <v>3.225806451612903</v>
+        <v>14.74654377880184</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C44">
-        <v>7.142857142857142</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D44">
-        <v>11.89873417721519</v>
+        <v>0.7594936708860759</v>
       </c>
       <c r="E44">
-        <v>14.28571428571428</v>
+        <v>3.686635944700461</v>
       </c>
       <c r="F44">
-        <v>0.4761904761904762</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>4.608294930875577</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="H44">
-        <v>0.2380952380952381</v>
+        <v>5.238095238095238</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2.304147465437788</v>
       </c>
       <c r="J44">
-        <v>0.2304147465437788</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="K44">
-        <v>3.333333333333333</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="L44">
-        <v>6.221198156682028</v>
+        <v>3.686635944700461</v>
       </c>
       <c r="M44">
-        <v>0.7142857142857143</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="N44">
-        <v>0.9216589861751152</v>
+        <v>0.4608294930875576</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C45">
-        <v>10.8294930875576</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D45">
-        <v>4.810126582278481</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>8.064516129032258</v>
+        <v>3.686635944700461</v>
       </c>
       <c r="F45">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>10.59907834101383</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="H45">
-        <v>7.61904761904762</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I45">
-        <v>8.064516129032258</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="J45">
-        <v>7.603686635944701</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="K45">
-        <v>13.0952380952381</v>
+        <v>6.904761904761905</v>
       </c>
       <c r="L45">
-        <v>21.88940092165899</v>
+        <v>4.147465437788019</v>
       </c>
       <c r="M45">
-        <v>28.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="N45">
-        <v>28.80184331797235</v>
+        <v>1.152073732718894</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D46">
-        <v>0.5063291139240507</v>
+        <v>5.316455696202532</v>
       </c>
       <c r="E46">
-        <v>2.995391705069124</v>
+        <v>12.44239631336406</v>
       </c>
       <c r="F46">
-        <v>1.666666666666667</v>
+        <v>10.95238095238095</v>
       </c>
       <c r="G46">
-        <v>4.608294930875577</v>
+        <v>13.36405529953917</v>
       </c>
       <c r="H46">
-        <v>0.7142857142857143</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3.917050691244239</v>
       </c>
       <c r="J46">
-        <v>0.2304147465437788</v>
+        <v>1.84331797235023</v>
       </c>
       <c r="K46">
-        <v>0.9523809523809524</v>
+        <v>17.38095238095238</v>
       </c>
       <c r="L46">
-        <v>2.304147465437788</v>
+        <v>18.66359447004608</v>
       </c>
       <c r="M46">
-        <v>0.7142857142857143</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.6912442396313364</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C47">
-        <v>6.451612903225806</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="D47">
-        <v>7.088607594936709</v>
+        <v>16.70886075949367</v>
       </c>
       <c r="E47">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="F47">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="G47">
+        <v>15.66820276497696</v>
+      </c>
+      <c r="H47">
+        <v>11.9047619047619</v>
+      </c>
+      <c r="I47">
+        <v>8.294930875576037</v>
+      </c>
+      <c r="J47">
         <v>8.064516129032258</v>
       </c>
-      <c r="F47">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="G47">
-        <v>2.304147465437788</v>
-      </c>
-      <c r="H47">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="I47">
-        <v>8.064516129032258</v>
-      </c>
-      <c r="J47">
-        <v>8.294930875576037</v>
-      </c>
       <c r="K47">
-        <v>4.761904761904762</v>
+        <v>16.90476190476191</v>
       </c>
       <c r="L47">
-        <v>3.456221198156682</v>
+        <v>11.29032258064516</v>
       </c>
       <c r="M47">
-        <v>9.047619047619047</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="N47">
-        <v>1.382488479262673</v>
+        <v>1.152073732718894</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C48">
-        <v>12.90322580645161</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="D48">
-        <v>8.101265822784811</v>
+        <v>16.70886075949367</v>
       </c>
       <c r="E48">
-        <v>17.97235023041475</v>
+        <v>27.88018433179723</v>
       </c>
       <c r="F48">
-        <v>13.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="G48">
-        <v>11.05990783410138</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="H48">
-        <v>12.85714285714286</v>
+        <v>11.19047619047619</v>
       </c>
       <c r="I48">
-        <v>17.97235023041475</v>
+        <v>7.834101382488479</v>
       </c>
       <c r="J48">
-        <v>14.51612903225807</v>
+        <v>7.603686635944701</v>
       </c>
       <c r="K48">
-        <v>17.14285714285714</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="L48">
-        <v>19.12442396313364</v>
+        <v>9.907834101382489</v>
       </c>
       <c r="M48">
-        <v>23.57142857142857</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="N48">
-        <v>14.51612903225807</v>
+        <v>0.4608294930875576</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D49">
         <v>0.5063291139240507</v>
       </c>
       <c r="E49">
-        <v>1.382488479262673</v>
+        <v>4.147465437788019</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>4.523809523809524</v>
       </c>
       <c r="G49">
-        <v>0.4608294930875576</v>
+        <v>21.65898617511521</v>
       </c>
       <c r="H49">
-        <v>0.9523809523809524</v>
+        <v>20.71428571428572</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>26.26728110599078</v>
       </c>
       <c r="J49">
-        <v>0.4608294930875576</v>
+        <v>33.17972350230415</v>
       </c>
       <c r="K49">
-        <v>2.857142857142857</v>
+        <v>21.90476190476191</v>
       </c>
       <c r="L49">
-        <v>11.75115207373272</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="M49">
-        <v>10.71428571428571</v>
+        <v>14.52380952380953</v>
       </c>
       <c r="N49">
-        <v>1.382488479262673</v>
+        <v>14.74654377880184</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.2304147465437788</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="D50">
-        <v>0.5063291139240507</v>
+        <v>0.7594936708860759</v>
       </c>
       <c r="E50">
-        <v>7.603686635944701</v>
+        <v>3.686635944700461</v>
       </c>
       <c r="F50">
-        <v>1.428571428571429</v>
+        <v>0</v>
       </c>
       <c r="G50">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="H50">
+        <v>5.238095238095238</v>
+      </c>
+      <c r="I50">
+        <v>2.304147465437788</v>
+      </c>
+      <c r="J50">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="K50">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="L50">
+        <v>3.686635944700461</v>
+      </c>
+      <c r="M50">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="N50">
         <v>0.4608294930875576</v>
-      </c>
-      <c r="H50">
-        <v>2.619047619047619</v>
-      </c>
-      <c r="I50">
-        <v>0.2304147465437788</v>
-      </c>
-      <c r="J50">
-        <v>0.2304147465437788</v>
-      </c>
-      <c r="K50">
-        <v>0.9523809523809524</v>
-      </c>
-      <c r="L50">
-        <v>5.299539170506913</v>
-      </c>
-      <c r="M50">
-        <v>7.380952380952381</v>
-      </c>
-      <c r="N50">
-        <v>1.382488479262673</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>16.70886075949367</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="G51">
-        <v>100</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>8.294930875576037</v>
       </c>
       <c r="J51">
-        <v>100</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="K51">
-        <v>100</v>
+        <v>16.90476190476191</v>
       </c>
       <c r="L51">
-        <v>100</v>
+        <v>11.29032258064516</v>
       </c>
       <c r="M51">
-        <v>100</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="N51">
-        <v>100</v>
+        <v>1.152073732718894</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C52">
+        <v>1.152073732718894</v>
+      </c>
+      <c r="D52">
+        <v>5.822784810126582</v>
+      </c>
+      <c r="E52">
+        <v>7.603686635944701</v>
+      </c>
+      <c r="F52">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="G52">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="H52">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="I52">
+        <v>2.304147465437788</v>
+      </c>
+      <c r="J52">
         <v>0.4608294930875576</v>
       </c>
-      <c r="D52">
-        <v>0.5063291139240507</v>
-      </c>
-      <c r="E52">
-        <v>0.4608294930875576</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0.4608294930875576</v>
-      </c>
-      <c r="H52">
-        <v>4.047619047619047</v>
-      </c>
-      <c r="I52">
-        <v>0.2304147465437788</v>
-      </c>
-      <c r="J52">
-        <v>0.2304147465437788</v>
-      </c>
       <c r="K52">
-        <v>0.4761904761904762</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L52">
-        <v>2.534562211981567</v>
+        <v>2.304147465437788</v>
       </c>
       <c r="M52">
-        <v>7.380952380952381</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>2.304147465437788</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C53">
-        <v>15.89861751152074</v>
+        <v>2.995391705069124</v>
       </c>
       <c r="D53">
-        <v>15.69620253164557</v>
+        <v>5.569620253164556</v>
       </c>
       <c r="E53">
-        <v>14.97695852534562</v>
+        <v>5.990783410138248</v>
       </c>
       <c r="F53">
-        <v>8.571428571428571</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G53">
-        <v>7.603686635944701</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="H53">
-        <v>8.571428571428571</v>
+        <v>9.761904761904763</v>
       </c>
       <c r="I53">
-        <v>7.373271889400922</v>
+        <v>18.20276497695852</v>
       </c>
       <c r="J53">
-        <v>7.373271889400922</v>
+        <v>16.3594470046083</v>
       </c>
       <c r="K53">
-        <v>10.47619047619048</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="L53">
-        <v>17.05069124423963</v>
+        <v>7.834101382488479</v>
       </c>
       <c r="M53">
-        <v>23.33333333333333</v>
+        <v>17.38095238095238</v>
       </c>
       <c r="N53">
-        <v>16.12903225806452</v>
+        <v>15.2073732718894</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C54">
-        <v>7.142857142857142</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="D54">
-        <v>7.848101265822785</v>
+        <v>4.556962025316456</v>
       </c>
       <c r="E54">
-        <v>8.525345622119817</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G54">
-        <v>0.4608294930875576</v>
+        <v>1.84331797235023</v>
       </c>
       <c r="H54">
-        <v>1.19047619047619</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I54">
-        <v>0.4608294930875576</v>
+        <v>1.84331797235023</v>
       </c>
       <c r="J54">
-        <v>0.2304147465437788</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L54">
-        <v>2.764976958525346</v>
+        <v>1.152073732718894</v>
       </c>
       <c r="M54">
-        <v>14.28571428571428</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="N54">
-        <v>7.603686635944701</v>
+        <v>0.9216589861751152</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C55">
-        <v>7.142857142857142</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="D55">
-        <v>9.367088607594937</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E55">
-        <v>16.3594470046083</v>
+        <v>1.152073732718894</v>
       </c>
       <c r="F55">
-        <v>9.047619047619047</v>
+        <v>4.523809523809524</v>
       </c>
       <c r="G55">
-        <v>10.36866359447005</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="H55">
-        <v>4.761904761904762</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="I55">
-        <v>2.073732718894009</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="J55">
-        <v>0.2304147465437788</v>
+        <v>6.682027649769585</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L55">
-        <v>2.534562211981567</v>
+        <v>3.456221198156682</v>
       </c>
       <c r="M55">
-        <v>14.28571428571428</v>
+        <v>16.19047619047619</v>
       </c>
       <c r="N55">
-        <v>7.603686635944701</v>
+        <v>7.373271889400922</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C56">
-        <v>17.05069124423963</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="D56">
-        <v>18.48101265822785</v>
+        <v>5.316455696202532</v>
       </c>
       <c r="E56">
-        <v>24.65437788018433</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="F56">
-        <v>25</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="G56">
-        <v>22.11981566820277</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>17.85714285714286</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="I56">
-        <v>15.89861751152074</v>
+        <v>8.986175115207374</v>
       </c>
       <c r="J56">
-        <v>14.97695852534562</v>
+        <v>8.294930875576037</v>
       </c>
       <c r="K56">
-        <v>15.47619047619048</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="L56">
-        <v>22.8110599078341</v>
+        <v>6.221198156682028</v>
       </c>
       <c r="M56">
-        <v>19.76190476190476</v>
+        <v>23.09523809523809</v>
       </c>
       <c r="N56">
-        <v>15.66820276497696</v>
+        <v>10.13824884792627</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C57">
-        <v>23.27188940092166</v>
+        <v>14.74654377880184</v>
       </c>
       <c r="D57">
-        <v>29.36708860759494</v>
+        <v>19.49367088607595</v>
       </c>
       <c r="E57">
-        <v>30.64516129032258</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>15.47619047619048</v>
       </c>
       <c r="G57">
-        <v>29.49308755760369</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="H57">
-        <v>30.47619047619048</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="I57">
-        <v>29.49308755760369</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="J57">
-        <v>28.57142857142857</v>
+        <v>14.74654377880184</v>
       </c>
       <c r="K57">
-        <v>34.76190476190476</v>
+        <v>10</v>
       </c>
       <c r="L57">
-        <v>33.17972350230415</v>
+        <v>11.52073732718894</v>
       </c>
       <c r="M57">
-        <v>35.23809523809524</v>
+        <v>24.04761904761905</v>
       </c>
       <c r="N57">
-        <v>33.41013824884793</v>
+        <v>13.82488479262673</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C58">
-        <v>16.12903225806452</v>
+        <v>1.152073732718894</v>
       </c>
       <c r="D58">
-        <v>23.54430379746836</v>
+        <v>5.822784810126582</v>
       </c>
       <c r="E58">
-        <v>24.65437788018433</v>
+        <v>7.603686635944701</v>
       </c>
       <c r="F58">
-        <v>21.66666666666667</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G58">
-        <v>22.11981566820277</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="H58">
-        <v>17.38095238095238</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I58">
-        <v>15.2073732718894</v>
+        <v>2.304147465437788</v>
       </c>
       <c r="J58">
-        <v>15.2073732718894</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="K58">
-        <v>14.28571428571428</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L58">
-        <v>18.20276497695852</v>
+        <v>2.304147465437788</v>
       </c>
       <c r="M58">
-        <v>17.14285714285714</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N58">
-        <v>17.05069124423963</v>
+        <v>2.304147465437788</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C59">
-        <v>12.90322580645161</v>
+        <v>2.995391705069124</v>
       </c>
       <c r="D59">
-        <v>15.44303797468354</v>
+        <v>5.569620253164556</v>
       </c>
       <c r="E59">
+        <v>5.990783410138248</v>
+      </c>
+      <c r="F59">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="G59">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="H59">
+        <v>9.761904761904763</v>
+      </c>
+      <c r="I59">
+        <v>18.20276497695852</v>
+      </c>
+      <c r="J59">
+        <v>16.3594470046083</v>
+      </c>
+      <c r="K59">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="L59">
+        <v>7.834101382488479</v>
+      </c>
+      <c r="M59">
+        <v>17.38095238095238</v>
+      </c>
+      <c r="N59">
         <v>15.2073732718894</v>
-      </c>
-      <c r="F59">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="G59">
-        <v>15.2073732718894</v>
-      </c>
-      <c r="H59">
-        <v>17.14285714285714</v>
-      </c>
-      <c r="I59">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="J59">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="K59">
-        <v>11.19047619047619</v>
-      </c>
-      <c r="L59">
-        <v>9.907834101382489</v>
-      </c>
-      <c r="M59">
-        <v>20.23809523809524</v>
-      </c>
-      <c r="N59">
-        <v>15.43778801843318</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C60">
-        <v>12.21198156682028</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="D60">
-        <v>15.44303797468354</v>
+        <v>4.556962025316456</v>
       </c>
       <c r="E60">
-        <v>16.58986175115207</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="F60">
-        <v>14.28571428571428</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G60">
-        <v>15.2073732718894</v>
+        <v>1.84331797235023</v>
       </c>
       <c r="H60">
-        <v>17.14285714285714</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I60">
-        <v>14.51612903225807</v>
+        <v>1.84331797235023</v>
       </c>
       <c r="J60">
-        <v>15.2073732718894</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="K60">
-        <v>11.9047619047619</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L60">
-        <v>9.67741935483871</v>
+        <v>1.152073732718894</v>
       </c>
       <c r="M60">
-        <v>20.47619047619047</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="N60">
-        <v>15.2073732718894</v>
+        <v>0.9216589861751152</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C61">
-        <v>12.21198156682028</v>
+        <v>14.74654377880184</v>
       </c>
       <c r="D61">
-        <v>16.20253164556962</v>
+        <v>19.49367088607595</v>
       </c>
       <c r="E61">
-        <v>18.66359447004608</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>15.47619047619048</v>
       </c>
       <c r="G61">
-        <v>20.73732718894009</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="H61">
-        <v>23.33333333333333</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="I61">
-        <v>21.65898617511521</v>
+        <v>15.66820276497696</v>
       </c>
       <c r="J61">
-        <v>14.97695852534562</v>
+        <v>14.74654377880184</v>
       </c>
       <c r="K61">
-        <v>12.14285714285714</v>
+        <v>10</v>
       </c>
       <c r="L61">
-        <v>11.05990783410138</v>
+        <v>11.52073732718894</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>24.04761904761905</v>
       </c>
       <c r="N61">
-        <v>15.43778801843318</v>
+        <v>13.82488479262673</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3321,46 +3321,46 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.9216589861751152</v>
+        <v>2.304147465437788</v>
       </c>
       <c r="D62">
-        <v>2.025316455696203</v>
+        <v>1.012658227848101</v>
       </c>
       <c r="E62">
-        <v>10.13824884792627</v>
+        <v>10.36866359447005</v>
       </c>
       <c r="F62">
-        <v>3.095238095238095</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="G62">
-        <v>0.4608294930875576</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="H62">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="I62">
-        <v>0.2304147465437788</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="K62">
-        <v>2.142857142857143</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L62">
-        <v>6.682027649769585</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="N62">
-        <v>0.6912442396313364</v>
+        <v>9.447004608294931</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3369,46 +3369,46 @@
         </is>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>14.51612903225807</v>
       </c>
       <c r="D63">
-        <v>57.72151898734177</v>
+        <v>9.113924050632912</v>
       </c>
       <c r="E63">
-        <v>50.69124423963134</v>
+        <v>2.073732718894009</v>
       </c>
       <c r="F63">
-        <v>50</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="G63">
-        <v>52.76497695852535</v>
+        <v>9.907834101382489</v>
       </c>
       <c r="H63">
-        <v>61.90476190476191</v>
+        <v>9.285714285714286</v>
       </c>
       <c r="I63">
-        <v>57.6036866359447</v>
+        <v>8.755760368663594</v>
       </c>
       <c r="J63">
-        <v>57.37327188940093</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="K63">
-        <v>57.38095238095238</v>
+        <v>15.47619047619048</v>
       </c>
       <c r="L63">
-        <v>57.14285714285714</v>
+        <v>17.05069124423963</v>
       </c>
       <c r="M63">
-        <v>57.14285714285714</v>
+        <v>27.14285714285714</v>
       </c>
       <c r="N63">
-        <v>57.37327188940093</v>
+        <v>22.11981566820277</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3417,46 +3417,46 @@
         </is>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="D64">
-        <v>50.63291139240506</v>
+        <v>1.518987341772152</v>
       </c>
       <c r="E64">
-        <v>51.1520737327189</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="F64">
-        <v>50.23809523809524</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>57.14285714285714</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="H64">
-        <v>57.14285714285714</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I64">
-        <v>57.37327188940093</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>57.14285714285714</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="K64">
-        <v>57.14285714285714</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L64">
-        <v>57.14285714285714</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="M64">
-        <v>57.14285714285714</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>57.37327188940093</v>
+        <v>1.152073732718894</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3465,46 +3465,46 @@
         </is>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="D65">
-        <v>50.37974683544304</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E65">
-        <v>51.38248847926268</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="F65">
-        <v>50.23809523809524</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>52.76497695852535</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="H65">
-        <v>57.85714285714286</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I65">
-        <v>57.37327188940093</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="J65">
-        <v>57.14285714285714</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>57.14285714285714</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L65">
-        <v>57.14285714285714</v>
+        <v>5.76036866359447</v>
       </c>
       <c r="M65">
-        <v>57.14285714285714</v>
+        <v>11.19047619047619</v>
       </c>
       <c r="N65">
-        <v>57.14285714285714</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3513,46 +3513,46 @@
         </is>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="D66">
-        <v>50.37974683544304</v>
+        <v>1.012658227848101</v>
       </c>
       <c r="E66">
-        <v>52.30414746543779</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="F66">
-        <v>50.23809523809524</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>53.45622119815668</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>58.33333333333334</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I66">
-        <v>57.83410138248848</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="J66">
-        <v>58.52534562211981</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>57.85714285714286</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L66">
-        <v>57.14285714285714</v>
+        <v>5.76036866359447</v>
       </c>
       <c r="M66">
-        <v>57.14285714285714</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="N66">
-        <v>57.14285714285714</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3561,328 +3561,2632 @@
         </is>
       </c>
       <c r="C67">
-        <v>51.84331797235023</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="D67">
-        <v>51.64556962025316</v>
+        <v>7.59493670886076</v>
       </c>
       <c r="E67">
-        <v>56.22119815668203</v>
+        <v>17.28110599078341</v>
       </c>
       <c r="F67">
-        <v>56.90476190476191</v>
+        <v>9.047619047619047</v>
       </c>
       <c r="G67">
-        <v>59.21658986175116</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="H67">
-        <v>65</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I67">
-        <v>64.05529953917051</v>
+        <v>8.986175115207374</v>
       </c>
       <c r="J67">
-        <v>59.90783410138248</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="K67">
-        <v>58.57142857142858</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="L67">
-        <v>57.14285714285714</v>
+        <v>10.36866359447005</v>
       </c>
       <c r="M67">
-        <v>57.38095238095238</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="N67">
-        <v>57.14285714285714</v>
+        <v>11.75115207373272</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C68">
-        <v>10.59907834101383</v>
+        <v>2.304147465437788</v>
       </c>
       <c r="D68">
-        <v>11.62255466052934</v>
+        <v>1.012658227848101</v>
       </c>
       <c r="E68">
-        <v>18.09803100125681</v>
+        <v>10.36866359447005</v>
       </c>
       <c r="F68">
-        <v>10.36796536796537</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="G68">
-        <v>10.01256807708421</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="H68">
-        <v>8.961038961038961</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="I68">
-        <v>9.090909090909092</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J68">
-        <v>8.734813573523251</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="K68">
-        <v>10.69264069264069</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L68">
-        <v>13.11269375785505</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="M68">
-        <v>11.81818181818182</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="N68">
-        <v>10.45245077503142</v>
+        <v>9.447004608294931</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C69">
-        <v>25.2618349392543</v>
+        <v>14.51612903225807</v>
       </c>
       <c r="D69">
-        <v>25.79976985040276</v>
+        <v>9.113924050632912</v>
       </c>
       <c r="E69">
-        <v>25.99497276916632</v>
+        <v>2.073732718894009</v>
       </c>
       <c r="F69">
-        <v>25.77922077922078</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="G69">
-        <v>32.5303728529535</v>
+        <v>9.907834101382489</v>
       </c>
       <c r="H69">
-        <v>32.66233766233766</v>
+        <v>9.285714285714286</v>
       </c>
       <c r="I69">
-        <v>31.96480938416422</v>
+        <v>8.755760368663594</v>
       </c>
       <c r="J69">
-        <v>34.20611646418098</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="K69">
-        <v>32.64069264069264</v>
+        <v>15.47619047619048</v>
       </c>
       <c r="L69">
-        <v>32.55131964809384</v>
+        <v>17.05069124423963</v>
       </c>
       <c r="M69">
-        <v>35.88744588744589</v>
+        <v>27.14285714285714</v>
       </c>
       <c r="N69">
-        <v>35.46292417260159</v>
+        <v>22.11981566820277</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C70">
-        <v>12.40050272308337</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="D70">
-        <v>13.4867663981588</v>
+        <v>1.518987341772152</v>
       </c>
       <c r="E70">
-        <v>14.41139505655635</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="F70">
-        <v>13.00865800865801</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>13.97151235860913</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="H70">
-        <v>14.13419913419914</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I70">
-        <v>13.00795978215333</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>13.40594888981986</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="K70">
-        <v>13.72294372294372</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L70">
-        <v>14.91411813992459</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="M70">
-        <v>15.19480519480519</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>14.36950146627566</v>
+        <v>1.152073732718894</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C71">
-        <v>15.060745705907</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="D71">
-        <v>14.72957422324511</v>
+        <v>7.59493670886076</v>
       </c>
       <c r="E71">
-        <v>14.91411813992459</v>
+        <v>17.28110599078341</v>
       </c>
       <c r="F71">
-        <v>14.06926406926407</v>
+        <v>9.047619047619047</v>
       </c>
       <c r="G71">
-        <v>14.43234185169669</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="H71">
-        <v>16.42857142857143</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I71">
-        <v>15.12358609132803</v>
+        <v>8.986175115207374</v>
       </c>
       <c r="J71">
-        <v>15.060745705907</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="K71">
-        <v>14.95670995670996</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="L71">
-        <v>16.19187264348555</v>
+        <v>10.36866359447005</v>
       </c>
       <c r="M71">
-        <v>22.42424242424243</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="N71">
-        <v>17.11353162966066</v>
+        <v>11.75115207373272</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S08-Pudahuel</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C72">
-        <v>15.41684122329284</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="D72">
-        <v>15.2819332566168</v>
+        <v>11.89873417721519</v>
       </c>
       <c r="E72">
-        <v>17.90950984499371</v>
+        <v>14.51612903225807</v>
       </c>
       <c r="F72">
-        <v>14.89177489177489</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G72">
-        <v>14.62086300795978</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="H72">
-        <v>16.14718614718615</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="I72">
-        <v>16.25471302890658</v>
+        <v>1.152073732718894</v>
       </c>
       <c r="J72">
-        <v>16.8412232928362</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="K72">
-        <v>18.07359307359307</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L72">
-        <v>18.2865521575199</v>
+        <v>6.221198156682028</v>
       </c>
       <c r="M72">
-        <v>24.13419913419913</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N72">
-        <v>17.99329702555509</v>
+        <v>0.9216589861751152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>10.8294930875576</v>
+      </c>
+      <c r="D73">
+        <v>4.810126582278481</v>
+      </c>
+      <c r="E73">
+        <v>8.294930875576037</v>
+      </c>
+      <c r="F73">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="G73">
+        <v>10.59907834101383</v>
+      </c>
+      <c r="H73">
+        <v>7.61904761904762</v>
+      </c>
+      <c r="I73">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="J73">
+        <v>7.603686635944701</v>
+      </c>
+      <c r="K73">
+        <v>13.0952380952381</v>
+      </c>
+      <c r="L73">
+        <v>21.88940092165899</v>
+      </c>
+      <c r="M73">
+        <v>28.80952380952381</v>
+      </c>
+      <c r="N73">
+        <v>28.80184331797235</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="E74">
+        <v>2.995391705069124</v>
+      </c>
+      <c r="F74">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="G74">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="H74">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="I74">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="J74">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="K74">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="L74">
+        <v>2.304147465437788</v>
+      </c>
+      <c r="M74">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N74">
+        <v>0.6912442396313364</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="D75">
+        <v>7.088607594936709</v>
+      </c>
+      <c r="E75">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="F75">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="G75">
+        <v>2.304147465437788</v>
+      </c>
+      <c r="H75">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="I75">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="J75">
+        <v>8.294930875576037</v>
+      </c>
+      <c r="K75">
+        <v>4.761904761904762</v>
+      </c>
+      <c r="L75">
+        <v>3.456221198156682</v>
+      </c>
+      <c r="M75">
+        <v>9.047619047619047</v>
+      </c>
+      <c r="N75">
+        <v>1.382488479262673</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>12.90322580645161</v>
+      </c>
+      <c r="D76">
+        <v>8.101265822784811</v>
+      </c>
+      <c r="E76">
+        <v>17.97235023041475</v>
+      </c>
+      <c r="F76">
+        <v>13.57142857142857</v>
+      </c>
+      <c r="G76">
+        <v>11.05990783410138</v>
+      </c>
+      <c r="H76">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="I76">
+        <v>17.97235023041475</v>
+      </c>
+      <c r="J76">
+        <v>14.51612903225807</v>
+      </c>
+      <c r="K76">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="L76">
+        <v>19.12442396313364</v>
+      </c>
+      <c r="M76">
+        <v>23.57142857142857</v>
+      </c>
+      <c r="N76">
+        <v>14.51612903225807</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="D77">
+        <v>12.15189873417721</v>
+      </c>
+      <c r="E77">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="F77">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="G77">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="H77">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="I77">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="J77">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="K77">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="L77">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="M77">
+        <v>10.95238095238095</v>
+      </c>
+      <c r="N77">
+        <v>1.612903225806452</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="D78">
+        <v>11.89873417721519</v>
+      </c>
+      <c r="E78">
+        <v>14.51612903225807</v>
+      </c>
+      <c r="F78">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="G78">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="H78">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="I78">
+        <v>1.152073732718894</v>
+      </c>
+      <c r="J78">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="K78">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="L78">
+        <v>6.221198156682028</v>
+      </c>
+      <c r="M78">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N78">
+        <v>0.9216589861751152</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>10.8294930875576</v>
+      </c>
+      <c r="D79">
+        <v>4.810126582278481</v>
+      </c>
+      <c r="E79">
+        <v>8.294930875576037</v>
+      </c>
+      <c r="F79">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="G79">
+        <v>10.59907834101383</v>
+      </c>
+      <c r="H79">
+        <v>7.61904761904762</v>
+      </c>
+      <c r="I79">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="J79">
+        <v>7.603686635944701</v>
+      </c>
+      <c r="K79">
+        <v>13.0952380952381</v>
+      </c>
+      <c r="L79">
+        <v>21.88940092165899</v>
+      </c>
+      <c r="M79">
+        <v>28.80952380952381</v>
+      </c>
+      <c r="N79">
+        <v>28.80184331797235</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="E80">
+        <v>2.995391705069124</v>
+      </c>
+      <c r="F80">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="G80">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="H80">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="I80">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="J80">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="K80">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="L80">
+        <v>2.304147465437788</v>
+      </c>
+      <c r="M80">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N80">
+        <v>0.6912442396313364</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="D81">
+        <v>12.15189873417721</v>
+      </c>
+      <c r="E81">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="F81">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="G81">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="H81">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="I81">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="J81">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="K81">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="L81">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="M81">
+        <v>10.95238095238095</v>
+      </c>
+      <c r="N81">
+        <v>1.612903225806452</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="D82">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="E82">
+        <v>7.603686635944701</v>
+      </c>
+      <c r="F82">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="G82">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="H82">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="I82">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="J82">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="K82">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="L82">
+        <v>5.529953917050691</v>
+      </c>
+      <c r="M82">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="N82">
+        <v>1.382488479262673</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83">
+        <v>100</v>
+      </c>
+      <c r="K83">
+        <v>100</v>
+      </c>
+      <c r="L83">
+        <v>100</v>
+      </c>
+      <c r="M83">
+        <v>100</v>
+      </c>
+      <c r="N83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="D84">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="E84">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="H84">
+        <v>4.761904761904762</v>
+      </c>
+      <c r="I84">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="J84">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="K84">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L84">
+        <v>2.764976958525346</v>
+      </c>
+      <c r="M84">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>15.89861751152074</v>
+      </c>
+      <c r="D85">
+        <v>15.69620253164557</v>
+      </c>
+      <c r="E85">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="F85">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="G85">
+        <v>7.603686635944701</v>
+      </c>
+      <c r="H85">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="I85">
+        <v>7.373271889400922</v>
+      </c>
+      <c r="J85">
+        <v>7.373271889400922</v>
+      </c>
+      <c r="K85">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="L85">
+        <v>17.05069124423963</v>
+      </c>
+      <c r="M85">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="N85">
+        <v>16.12903225806452</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="D86">
+        <v>7.848101265822785</v>
+      </c>
+      <c r="E86">
+        <v>8.525345622119817</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="H86">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="I86">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="J86">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>2.764976958525346</v>
+      </c>
+      <c r="M86">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="N86">
+        <v>7.603686635944701</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>7.373271889400922</v>
+      </c>
+      <c r="D87">
+        <v>9.367088607594937</v>
+      </c>
+      <c r="E87">
+        <v>20.73732718894009</v>
+      </c>
+      <c r="F87">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="G87">
+        <v>10.8294930875576</v>
+      </c>
+      <c r="H87">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="I87">
+        <v>4.147465437788019</v>
+      </c>
+      <c r="J87">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="K87">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="L87">
+        <v>5.990783410138248</v>
+      </c>
+      <c r="M87">
+        <v>15</v>
+      </c>
+      <c r="N87">
+        <v>8.986175115207374</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="D88">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="E88">
+        <v>7.603686635944701</v>
+      </c>
+      <c r="F88">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="G88">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="H88">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="I88">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="J88">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="K88">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="L88">
+        <v>5.529953917050691</v>
+      </c>
+      <c r="M88">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="N88">
+        <v>1.382488479262673</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <v>100</v>
+      </c>
+      <c r="K89">
+        <v>100</v>
+      </c>
+      <c r="L89">
+        <v>100</v>
+      </c>
+      <c r="M89">
+        <v>100</v>
+      </c>
+      <c r="N89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="D90">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="E90">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="H90">
+        <v>4.761904761904762</v>
+      </c>
+      <c r="I90">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="J90">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="K90">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L90">
+        <v>2.764976958525346</v>
+      </c>
+      <c r="M90">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>7.373271889400922</v>
+      </c>
+      <c r="D91">
+        <v>9.367088607594937</v>
+      </c>
+      <c r="E91">
+        <v>20.73732718894009</v>
+      </c>
+      <c r="F91">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="G91">
+        <v>10.8294930875576</v>
+      </c>
+      <c r="H91">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="I91">
+        <v>4.147465437788019</v>
+      </c>
+      <c r="J91">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="K91">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="L91">
+        <v>5.990783410138248</v>
+      </c>
+      <c r="M91">
+        <v>15</v>
+      </c>
+      <c r="N91">
+        <v>8.986175115207374</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>17.05069124423963</v>
+      </c>
+      <c r="D92">
+        <v>18.48101265822785</v>
+      </c>
+      <c r="E92">
+        <v>24.65437788018433</v>
+      </c>
+      <c r="F92">
+        <v>25</v>
+      </c>
+      <c r="G92">
+        <v>22.11981566820277</v>
+      </c>
+      <c r="H92">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="I92">
+        <v>16.12903225806452</v>
+      </c>
+      <c r="J92">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="K92">
+        <v>15.47619047619048</v>
+      </c>
+      <c r="L92">
+        <v>22.8110599078341</v>
+      </c>
+      <c r="M92">
+        <v>20</v>
+      </c>
+      <c r="N92">
+        <v>15.89861751152074</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>23.27188940092166</v>
+      </c>
+      <c r="D93">
+        <v>29.36708860759494</v>
+      </c>
+      <c r="E93">
+        <v>30.64516129032258</v>
+      </c>
+      <c r="F93">
+        <v>30</v>
+      </c>
+      <c r="G93">
+        <v>29.49308755760369</v>
+      </c>
+      <c r="H93">
+        <v>30.47619047619048</v>
+      </c>
+      <c r="I93">
+        <v>29.49308755760369</v>
+      </c>
+      <c r="J93">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="K93">
+        <v>34.76190476190476</v>
+      </c>
+      <c r="L93">
+        <v>33.17972350230415</v>
+      </c>
+      <c r="M93">
+        <v>35.23809523809524</v>
+      </c>
+      <c r="N93">
+        <v>33.41013824884793</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>16.12903225806452</v>
+      </c>
+      <c r="D94">
+        <v>23.54430379746836</v>
+      </c>
+      <c r="E94">
+        <v>24.88479262672811</v>
+      </c>
+      <c r="F94">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="G94">
+        <v>22.35023041474654</v>
+      </c>
+      <c r="H94">
+        <v>17.61904761904762</v>
+      </c>
+      <c r="I94">
+        <v>15.89861751152074</v>
+      </c>
+      <c r="J94">
+        <v>15.43778801843318</v>
+      </c>
+      <c r="K94">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="L94">
+        <v>18.66359447004608</v>
+      </c>
+      <c r="M94">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="N94">
+        <v>17.05069124423963</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>12.90322580645161</v>
+      </c>
+      <c r="D95">
+        <v>15.44303797468354</v>
+      </c>
+      <c r="E95">
+        <v>15.2073732718894</v>
+      </c>
+      <c r="F95">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="G95">
+        <v>15.2073732718894</v>
+      </c>
+      <c r="H95">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="I95">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="J95">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="K95">
+        <v>11.19047619047619</v>
+      </c>
+      <c r="L95">
+        <v>9.907834101382489</v>
+      </c>
+      <c r="M95">
+        <v>20.23809523809524</v>
+      </c>
+      <c r="N95">
+        <v>15.43778801843318</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>12.21198156682028</v>
+      </c>
+      <c r="D96">
+        <v>15.44303797468354</v>
+      </c>
+      <c r="E96">
+        <v>16.58986175115207</v>
+      </c>
+      <c r="F96">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="G96">
+        <v>15.2073732718894</v>
+      </c>
+      <c r="H96">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="I96">
+        <v>14.51612903225807</v>
+      </c>
+      <c r="J96">
+        <v>15.2073732718894</v>
+      </c>
+      <c r="K96">
+        <v>11.9047619047619</v>
+      </c>
+      <c r="L96">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="M96">
+        <v>20.47619047619047</v>
+      </c>
+      <c r="N96">
+        <v>15.2073732718894</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>20.27649769585253</v>
+      </c>
+      <c r="D97">
+        <v>19.74683544303797</v>
+      </c>
+      <c r="E97">
+        <v>28.80184331797235</v>
+      </c>
+      <c r="F97">
+        <v>30.71428571428572</v>
+      </c>
+      <c r="G97">
+        <v>28.34101382488479</v>
+      </c>
+      <c r="H97">
+        <v>30.95238095238095</v>
+      </c>
+      <c r="I97">
+        <v>29.72350230414747</v>
+      </c>
+      <c r="J97">
+        <v>23.04147465437788</v>
+      </c>
+      <c r="K97">
+        <v>20.23809523809524</v>
+      </c>
+      <c r="L97">
+        <v>25.80645161290322</v>
+      </c>
+      <c r="M97">
+        <v>30.23809523809524</v>
+      </c>
+      <c r="N97">
+        <v>23.73271889400922</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>17.05069124423963</v>
+      </c>
+      <c r="D98">
+        <v>18.48101265822785</v>
+      </c>
+      <c r="E98">
+        <v>24.65437788018433</v>
+      </c>
+      <c r="F98">
+        <v>25</v>
+      </c>
+      <c r="G98">
+        <v>22.11981566820277</v>
+      </c>
+      <c r="H98">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="I98">
+        <v>16.12903225806452</v>
+      </c>
+      <c r="J98">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="K98">
+        <v>15.47619047619048</v>
+      </c>
+      <c r="L98">
+        <v>22.8110599078341</v>
+      </c>
+      <c r="M98">
+        <v>20</v>
+      </c>
+      <c r="N98">
+        <v>15.89861751152074</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>23.27188940092166</v>
+      </c>
+      <c r="D99">
+        <v>29.36708860759494</v>
+      </c>
+      <c r="E99">
+        <v>30.64516129032258</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>29.49308755760369</v>
+      </c>
+      <c r="H99">
+        <v>30.47619047619048</v>
+      </c>
+      <c r="I99">
+        <v>29.49308755760369</v>
+      </c>
+      <c r="J99">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="K99">
+        <v>34.76190476190476</v>
+      </c>
+      <c r="L99">
+        <v>33.17972350230415</v>
+      </c>
+      <c r="M99">
+        <v>35.23809523809524</v>
+      </c>
+      <c r="N99">
+        <v>33.41013824884793</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>16.12903225806452</v>
+      </c>
+      <c r="D100">
+        <v>23.54430379746836</v>
+      </c>
+      <c r="E100">
+        <v>24.88479262672811</v>
+      </c>
+      <c r="F100">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="G100">
+        <v>22.35023041474654</v>
+      </c>
+      <c r="H100">
+        <v>17.61904761904762</v>
+      </c>
+      <c r="I100">
+        <v>15.89861751152074</v>
+      </c>
+      <c r="J100">
+        <v>15.43778801843318</v>
+      </c>
+      <c r="K100">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="L100">
+        <v>18.66359447004608</v>
+      </c>
+      <c r="M100">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="N100">
+        <v>17.05069124423963</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>20.27649769585253</v>
+      </c>
+      <c r="D101">
+        <v>19.74683544303797</v>
+      </c>
+      <c r="E101">
+        <v>28.80184331797235</v>
+      </c>
+      <c r="F101">
+        <v>30.71428571428572</v>
+      </c>
+      <c r="G101">
+        <v>28.34101382488479</v>
+      </c>
+      <c r="H101">
+        <v>30.95238095238095</v>
+      </c>
+      <c r="I101">
+        <v>29.72350230414747</v>
+      </c>
+      <c r="J101">
+        <v>23.04147465437788</v>
+      </c>
+      <c r="K101">
+        <v>20.23809523809524</v>
+      </c>
+      <c r="L101">
+        <v>25.80645161290322</v>
+      </c>
+      <c r="M101">
+        <v>30.23809523809524</v>
+      </c>
+      <c r="N101">
+        <v>23.73271889400922</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="D102">
+        <v>2.025316455696203</v>
+      </c>
+      <c r="E102">
+        <v>10.13824884792627</v>
+      </c>
+      <c r="F102">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G102">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="H102">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="I102">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="L102">
+        <v>6.682027649769585</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0.6912442396313364</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>50</v>
+      </c>
+      <c r="D103">
+        <v>57.72151898734177</v>
+      </c>
+      <c r="E103">
+        <v>50.69124423963134</v>
+      </c>
+      <c r="F103">
+        <v>50</v>
+      </c>
+      <c r="G103">
+        <v>52.76497695852535</v>
+      </c>
+      <c r="H103">
+        <v>61.90476190476191</v>
+      </c>
+      <c r="I103">
+        <v>57.6036866359447</v>
+      </c>
+      <c r="J103">
+        <v>57.37327188940093</v>
+      </c>
+      <c r="K103">
+        <v>57.38095238095238</v>
+      </c>
+      <c r="L103">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="M103">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="N103">
+        <v>57.37327188940093</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>50</v>
+      </c>
+      <c r="D104">
+        <v>50.63291139240506</v>
+      </c>
+      <c r="E104">
+        <v>51.1520737327189</v>
+      </c>
+      <c r="F104">
+        <v>50.47619047619047</v>
+      </c>
+      <c r="G104">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="H104">
+        <v>57.38095238095238</v>
+      </c>
+      <c r="I104">
+        <v>57.37327188940093</v>
+      </c>
+      <c r="J104">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="K104">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="L104">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="M104">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="N104">
+        <v>57.37327188940093</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>50</v>
+      </c>
+      <c r="D105">
+        <v>50.37974683544304</v>
+      </c>
+      <c r="E105">
+        <v>51.38248847926268</v>
+      </c>
+      <c r="F105">
+        <v>50.23809523809524</v>
+      </c>
+      <c r="G105">
+        <v>52.76497695852535</v>
+      </c>
+      <c r="H105">
+        <v>57.85714285714286</v>
+      </c>
+      <c r="I105">
+        <v>57.37327188940093</v>
+      </c>
+      <c r="J105">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="K105">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="L105">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="M105">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="N105">
+        <v>57.14285714285714</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>50.37974683544304</v>
+      </c>
+      <c r="E106">
+        <v>52.30414746543779</v>
+      </c>
+      <c r="F106">
+        <v>50.23809523809524</v>
+      </c>
+      <c r="G106">
+        <v>53.45622119815668</v>
+      </c>
+      <c r="H106">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="I106">
+        <v>57.83410138248848</v>
+      </c>
+      <c r="J106">
+        <v>58.52534562211981</v>
+      </c>
+      <c r="K106">
+        <v>57.85714285714286</v>
+      </c>
+      <c r="L106">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="M106">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="N106">
+        <v>57.14285714285714</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>52.07373271889401</v>
+      </c>
+      <c r="D107">
+        <v>52.40506329113924</v>
+      </c>
+      <c r="E107">
+        <v>58.75576036866359</v>
+      </c>
+      <c r="F107">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="G107">
+        <v>59.21658986175116</v>
+      </c>
+      <c r="H107">
+        <v>65.23809523809524</v>
+      </c>
+      <c r="I107">
+        <v>64.97695852534562</v>
+      </c>
+      <c r="J107">
+        <v>59.90783410138248</v>
+      </c>
+      <c r="K107">
+        <v>58.80952380952381</v>
+      </c>
+      <c r="L107">
+        <v>58.98617511520737</v>
+      </c>
+      <c r="M107">
+        <v>57.38095238095238</v>
+      </c>
+      <c r="N107">
+        <v>57.6036866359447</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>0.9216589861751152</v>
+      </c>
+      <c r="D108">
+        <v>2.025316455696203</v>
+      </c>
+      <c r="E108">
+        <v>10.13824884792627</v>
+      </c>
+      <c r="F108">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G108">
+        <v>0.6912442396313364</v>
+      </c>
+      <c r="H108">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="I108">
+        <v>0.2304147465437788</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="L108">
+        <v>6.682027649769585</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0.6912442396313364</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>50</v>
+      </c>
+      <c r="D109">
+        <v>57.72151898734177</v>
+      </c>
+      <c r="E109">
+        <v>50.69124423963134</v>
+      </c>
+      <c r="F109">
+        <v>50</v>
+      </c>
+      <c r="G109">
+        <v>52.76497695852535</v>
+      </c>
+      <c r="H109">
+        <v>61.90476190476191</v>
+      </c>
+      <c r="I109">
+        <v>57.6036866359447</v>
+      </c>
+      <c r="J109">
+        <v>57.37327188940093</v>
+      </c>
+      <c r="K109">
+        <v>57.38095238095238</v>
+      </c>
+      <c r="L109">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="M109">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="N109">
+        <v>57.37327188940093</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>50</v>
+      </c>
+      <c r="D110">
+        <v>50.63291139240506</v>
+      </c>
+      <c r="E110">
+        <v>51.1520737327189</v>
+      </c>
+      <c r="F110">
+        <v>50.47619047619047</v>
+      </c>
+      <c r="G110">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="H110">
+        <v>57.38095238095238</v>
+      </c>
+      <c r="I110">
+        <v>57.37327188940093</v>
+      </c>
+      <c r="J110">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="K110">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="L110">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="M110">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="N110">
+        <v>57.37327188940093</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>52.07373271889401</v>
+      </c>
+      <c r="D111">
+        <v>52.40506329113924</v>
+      </c>
+      <c r="E111">
+        <v>58.75576036866359</v>
+      </c>
+      <c r="F111">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="G111">
+        <v>59.21658986175116</v>
+      </c>
+      <c r="H111">
+        <v>65.23809523809524</v>
+      </c>
+      <c r="I111">
+        <v>64.97695852534562</v>
+      </c>
+      <c r="J111">
+        <v>59.90783410138248</v>
+      </c>
+      <c r="K111">
+        <v>58.80952380952381</v>
+      </c>
+      <c r="L111">
+        <v>58.98617511520737</v>
+      </c>
+      <c r="M111">
+        <v>57.38095238095238</v>
+      </c>
+      <c r="N111">
+        <v>57.6036866359447</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>10.62002513615417</v>
+      </c>
+      <c r="D112">
+        <v>11.62255466052934</v>
+      </c>
+      <c r="E112">
+        <v>18.11897779639715</v>
+      </c>
+      <c r="F112">
+        <v>10.38961038961039</v>
+      </c>
+      <c r="G112">
+        <v>10.2010892333473</v>
+      </c>
+      <c r="H112">
+        <v>9.61038961038961</v>
+      </c>
+      <c r="I112">
+        <v>9.405111018014244</v>
+      </c>
+      <c r="J112">
+        <v>8.860494344365312</v>
+      </c>
+      <c r="K112">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="L112">
+        <v>13.13364055299539</v>
+      </c>
+      <c r="M112">
+        <v>11.88311688311688</v>
+      </c>
+      <c r="N112">
+        <v>10.53623795559279</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>25.38751571009635</v>
+      </c>
+      <c r="D113">
+        <v>25.91484464902186</v>
+      </c>
+      <c r="E113">
+        <v>26.09970674486803</v>
+      </c>
+      <c r="F113">
+        <v>25.77922077922078</v>
+      </c>
+      <c r="G113">
+        <v>32.5303728529535</v>
+      </c>
+      <c r="H113">
+        <v>32.66233766233766</v>
+      </c>
+      <c r="I113">
+        <v>31.96480938416422</v>
+      </c>
+      <c r="J113">
+        <v>34.20611646418098</v>
+      </c>
+      <c r="K113">
+        <v>32.64069264069264</v>
+      </c>
+      <c r="L113">
+        <v>32.57226644323418</v>
+      </c>
+      <c r="M113">
+        <v>35.93073593073593</v>
+      </c>
+      <c r="N113">
+        <v>35.48387096774194</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>12.42144951822371</v>
+      </c>
+      <c r="D114">
+        <v>13.4867663981588</v>
+      </c>
+      <c r="E114">
+        <v>14.43234185169669</v>
+      </c>
+      <c r="F114">
+        <v>13.05194805194805</v>
+      </c>
+      <c r="G114">
+        <v>14.07624633431085</v>
+      </c>
+      <c r="H114">
+        <v>14.45887445887446</v>
+      </c>
+      <c r="I114">
+        <v>13.21742773355677</v>
+      </c>
+      <c r="J114">
+        <v>13.46878927524089</v>
+      </c>
+      <c r="K114">
+        <v>13.74458874458874</v>
+      </c>
+      <c r="L114">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="M114">
+        <v>15.25974025974026</v>
+      </c>
+      <c r="N114">
+        <v>14.36950146627566</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>15.060745705907</v>
+      </c>
+      <c r="D115">
+        <v>14.72957422324511</v>
+      </c>
+      <c r="E115">
+        <v>14.91411813992459</v>
+      </c>
+      <c r="F115">
+        <v>14.06926406926407</v>
+      </c>
+      <c r="G115">
+        <v>14.43234185169669</v>
+      </c>
+      <c r="H115">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="I115">
+        <v>15.12358609132803</v>
+      </c>
+      <c r="J115">
+        <v>15.060745705907</v>
+      </c>
+      <c r="K115">
+        <v>14.95670995670996</v>
+      </c>
+      <c r="L115">
+        <v>16.19187264348555</v>
+      </c>
+      <c r="M115">
+        <v>22.42424242424243</v>
+      </c>
+      <c r="N115">
+        <v>17.11353162966066</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>15.41684122329284</v>
+      </c>
+      <c r="D116">
+        <v>15.2819332566168</v>
+      </c>
+      <c r="E116">
+        <v>17.90950984499371</v>
+      </c>
+      <c r="F116">
+        <v>14.89177489177489</v>
+      </c>
+      <c r="G116">
+        <v>14.62086300795978</v>
+      </c>
+      <c r="H116">
+        <v>16.14718614718615</v>
+      </c>
+      <c r="I116">
+        <v>16.25471302890658</v>
+      </c>
+      <c r="J116">
+        <v>16.8412232928362</v>
+      </c>
+      <c r="K116">
+        <v>18.07359307359307</v>
+      </c>
+      <c r="L116">
+        <v>18.2865521575199</v>
+      </c>
+      <c r="M116">
+        <v>24.13419913419913</v>
+      </c>
+      <c r="N116">
+        <v>17.99329702555509</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Wind Speed</t>
         </is>
       </c>
-      <c r="C73">
-        <v>15.6891495601173</v>
-      </c>
-      <c r="D73">
-        <v>16.2945914844649</v>
-      </c>
-      <c r="E73">
-        <v>18.45412651864265</v>
-      </c>
-      <c r="F73">
-        <v>16.6017316017316</v>
-      </c>
-      <c r="G73">
-        <v>17.09258483452032</v>
-      </c>
-      <c r="H73">
-        <v>17.03463203463204</v>
-      </c>
-      <c r="I73">
-        <v>15.94051110180142</v>
-      </c>
-      <c r="J73">
-        <v>15.10263929618768</v>
-      </c>
-      <c r="K73">
-        <v>15.23809523809524</v>
-      </c>
-      <c r="L73">
-        <v>16.23376623376623</v>
-      </c>
-      <c r="M73">
-        <v>22.66233766233766</v>
-      </c>
-      <c r="N73">
-        <v>17.57436112274822</v>
+      <c r="C117">
+        <v>19.45957268537914</v>
+      </c>
+      <c r="D117">
+        <v>20.23014959723821</v>
+      </c>
+      <c r="E117">
+        <v>27.54503560955174</v>
+      </c>
+      <c r="F117">
+        <v>19.43722943722944</v>
+      </c>
+      <c r="G117">
+        <v>19.89945538332635</v>
+      </c>
+      <c r="H117">
+        <v>19.74025974025974</v>
+      </c>
+      <c r="I117">
+        <v>18.7683284457478</v>
+      </c>
+      <c r="J117">
+        <v>16.73648931713448</v>
+      </c>
+      <c r="K117">
+        <v>18.26839826839827</v>
+      </c>
+      <c r="L117">
+        <v>20.96774193548387</v>
+      </c>
+      <c r="M117">
+        <v>25.4978354978355</v>
+      </c>
+      <c r="N117">
+        <v>20.2136573104315</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>10.62002513615417</v>
+      </c>
+      <c r="D118">
+        <v>11.62255466052934</v>
+      </c>
+      <c r="E118">
+        <v>18.11897779639715</v>
+      </c>
+      <c r="F118">
+        <v>10.38961038961039</v>
+      </c>
+      <c r="G118">
+        <v>10.2010892333473</v>
+      </c>
+      <c r="H118">
+        <v>9.61038961038961</v>
+      </c>
+      <c r="I118">
+        <v>9.405111018014244</v>
+      </c>
+      <c r="J118">
+        <v>8.860494344365312</v>
+      </c>
+      <c r="K118">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="L118">
+        <v>13.13364055299539</v>
+      </c>
+      <c r="M118">
+        <v>11.88311688311688</v>
+      </c>
+      <c r="N118">
+        <v>10.53623795559279</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>25.38751571009635</v>
+      </c>
+      <c r="D119">
+        <v>25.91484464902186</v>
+      </c>
+      <c r="E119">
+        <v>26.09970674486803</v>
+      </c>
+      <c r="F119">
+        <v>25.77922077922078</v>
+      </c>
+      <c r="G119">
+        <v>32.5303728529535</v>
+      </c>
+      <c r="H119">
+        <v>32.66233766233766</v>
+      </c>
+      <c r="I119">
+        <v>31.96480938416422</v>
+      </c>
+      <c r="J119">
+        <v>34.20611646418098</v>
+      </c>
+      <c r="K119">
+        <v>32.64069264069264</v>
+      </c>
+      <c r="L119">
+        <v>32.57226644323418</v>
+      </c>
+      <c r="M119">
+        <v>35.93073593073593</v>
+      </c>
+      <c r="N119">
+        <v>35.48387096774194</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>12.42144951822371</v>
+      </c>
+      <c r="D120">
+        <v>13.4867663981588</v>
+      </c>
+      <c r="E120">
+        <v>14.43234185169669</v>
+      </c>
+      <c r="F120">
+        <v>13.05194805194805</v>
+      </c>
+      <c r="G120">
+        <v>14.07624633431085</v>
+      </c>
+      <c r="H120">
+        <v>14.45887445887446</v>
+      </c>
+      <c r="I120">
+        <v>13.21742773355677</v>
+      </c>
+      <c r="J120">
+        <v>13.46878927524089</v>
+      </c>
+      <c r="K120">
+        <v>13.74458874458874</v>
+      </c>
+      <c r="L120">
+        <v>14.97695852534562</v>
+      </c>
+      <c r="M120">
+        <v>15.25974025974026</v>
+      </c>
+      <c r="N120">
+        <v>14.36950146627566</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>19.45957268537914</v>
+      </c>
+      <c r="D121">
+        <v>20.23014959723821</v>
+      </c>
+      <c r="E121">
+        <v>27.54503560955174</v>
+      </c>
+      <c r="F121">
+        <v>19.43722943722944</v>
+      </c>
+      <c r="G121">
+        <v>19.89945538332635</v>
+      </c>
+      <c r="H121">
+        <v>19.74025974025974</v>
+      </c>
+      <c r="I121">
+        <v>18.7683284457478</v>
+      </c>
+      <c r="J121">
+        <v>16.73648931713448</v>
+      </c>
+      <c r="K121">
+        <v>18.26839826839827</v>
+      </c>
+      <c r="L121">
+        <v>20.96774193548387</v>
+      </c>
+      <c r="M121">
+        <v>25.4978354978355</v>
+      </c>
+      <c r="N121">
+        <v>20.2136573104315</v>
       </c>
     </row>
   </sheetData>
